--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicr\Documents\2024-1\Ling. computacional\Trabajo\Conjugador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicr\Documents\2024-1\Ling. computacional\Trabajo\Proyecto-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0A917-CB5C-4703-BDDC-2F7C624BA2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DBCF1-2B9C-4F15-9C5F-8E601744E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E9296A5-FEDE-40ED-A951-BD77C6F3F0CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>puñuy</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>mikuy</t>
+  </si>
+  <si>
+    <t>tusuy</t>
+  </si>
+  <si>
+    <t>bailar</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D5871-2114-4B55-8C69-5C84ABA3FBB3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +517,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicr\Documents\2024-1\Ling. computacional\Trabajo\Proyecto-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DBCF1-2B9C-4F15-9C5F-8E601744E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEB1E05-9810-47C6-B083-49648BC56F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E9296A5-FEDE-40ED-A951-BD77C6F3F0CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>puñuy</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>bailar</t>
+  </si>
+  <si>
+    <t>llamkay</t>
+  </si>
+  <si>
+    <t>trabajar</t>
+  </si>
+  <si>
+    <t>rimay</t>
+  </si>
+  <si>
+    <t>hablar</t>
   </si>
 </sst>
 </file>
@@ -437,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D5871-2114-4B55-8C69-5C84ABA3FBB3}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -453,31 +465,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -485,47 +499,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>